--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/82/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/82/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.42934</v>
+        <v>3.15595</v>
       </c>
       <c r="C5" t="n">
-        <v>3429.34</v>
+        <v>3155.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124006</v>
+        <v>0.12397</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>3.21274</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>3212.74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155041</v>
+        <v>0.154946</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>3.25029</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>3250.29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186012</v>
+        <v>0.185922</v>
       </c>
       <c r="B8" t="n">
-        <v>6.667590000000001</v>
+        <v>3.28034</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.59</v>
+        <v>3280.34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216989</v>
+        <v>0.216899</v>
       </c>
       <c r="B9" t="n">
-        <v>7.67683</v>
+        <v>3.33763</v>
       </c>
       <c r="C9" t="n">
-        <v>7676.83</v>
+        <v>3337.63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.24794</v>
+        <v>0.247875</v>
       </c>
       <c r="B10" t="n">
-        <v>8.27495</v>
+        <v>3.367</v>
       </c>
       <c r="C10" t="n">
-        <v>8274.950000000001</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278865</v>
+        <v>0.278803</v>
       </c>
       <c r="B11" t="n">
-        <v>8.91606</v>
+        <v>3.406</v>
       </c>
       <c r="C11" t="n">
-        <v>8916.059999999999</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.30979</v>
+        <v>0.309728</v>
       </c>
       <c r="B12" t="n">
-        <v>9.324190000000002</v>
+        <v>3.4376</v>
       </c>
       <c r="C12" t="n">
-        <v>9324.190000000001</v>
+        <v>3437.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340715</v>
+        <v>0.340653</v>
       </c>
       <c r="B13" t="n">
-        <v>9.6303</v>
+        <v>3.46798</v>
       </c>
       <c r="C13" t="n">
-        <v>9630.299999999999</v>
+        <v>3467.98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.37164</v>
+        <v>0.371578</v>
       </c>
       <c r="B14" t="n">
-        <v>9.777180000000001</v>
+        <v>3.49634</v>
       </c>
       <c r="C14" t="n">
-        <v>9777.18</v>
+        <v>3496.34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402565</v>
+        <v>0.402503</v>
       </c>
       <c r="B15" t="n">
-        <v>9.82766</v>
+        <v>3.52328</v>
       </c>
       <c r="C15" t="n">
-        <v>9827.66</v>
+        <v>3523.28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.43349</v>
+        <v>0.433428</v>
       </c>
       <c r="B16" t="n">
-        <v>9.85543</v>
+        <v>3.54995</v>
       </c>
       <c r="C16" t="n">
-        <v>9855.43</v>
+        <v>3549.95</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464415</v>
+        <v>0.464349</v>
       </c>
       <c r="B17" t="n">
-        <v>9.879370000000002</v>
+        <v>3.57412</v>
       </c>
       <c r="C17" t="n">
-        <v>9879.370000000001</v>
+        <v>3574.12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.49534</v>
+        <v>0.495274</v>
       </c>
       <c r="B18" t="n">
-        <v>9.898260000000001</v>
+        <v>3.59785</v>
       </c>
       <c r="C18" t="n">
-        <v>9898.26</v>
+        <v>3597.85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526266</v>
+        <v>0.526199</v>
       </c>
       <c r="B19" t="n">
-        <v>9.91206</v>
+        <v>3.62111</v>
       </c>
       <c r="C19" t="n">
-        <v>9912.059999999999</v>
+        <v>3621.11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557191</v>
+        <v>0.557124</v>
       </c>
       <c r="B20" t="n">
-        <v>9.924770000000001</v>
+        <v>3.64325</v>
       </c>
       <c r="C20" t="n">
-        <v>9924.77</v>
+        <v>3643.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588116</v>
+        <v>0.588049</v>
       </c>
       <c r="B21" t="n">
-        <v>9.936159999999999</v>
+        <v>3.66449</v>
       </c>
       <c r="C21" t="n">
-        <v>9936.16</v>
+        <v>3664.49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619158</v>
+        <v>0.6190909999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>9.94575</v>
+        <v>3.68543</v>
       </c>
       <c r="C22" t="n">
-        <v>9945.75</v>
+        <v>3685.43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.65033</v>
+        <v>0.650268</v>
       </c>
       <c r="B23" t="n">
-        <v>9.95377</v>
+        <v>3.70565</v>
       </c>
       <c r="C23" t="n">
-        <v>9953.77</v>
+        <v>3705.65</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681503</v>
+        <v>0.681441</v>
       </c>
       <c r="B24" t="n">
-        <v>9.960430000000001</v>
+        <v>3.72542</v>
       </c>
       <c r="C24" t="n">
-        <v>9960.43</v>
+        <v>3725.42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.71268</v>
+        <v>0.7126130000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>9.965920000000001</v>
+        <v>3.74467</v>
       </c>
       <c r="C25" t="n">
-        <v>9965.92</v>
+        <v>3744.67</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743852</v>
+        <v>0.74379</v>
       </c>
       <c r="B26" t="n">
-        <v>9.970420000000001</v>
+        <v>3.76336</v>
       </c>
       <c r="C26" t="n">
-        <v>9970.42</v>
+        <v>3763.36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775029</v>
+        <v>0.774963</v>
       </c>
       <c r="B27" t="n">
-        <v>9.9741</v>
+        <v>3.78161</v>
       </c>
       <c r="C27" t="n">
-        <v>9974.1</v>
+        <v>3781.61</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806202</v>
+        <v>0.806136</v>
       </c>
       <c r="B28" t="n">
-        <v>9.97681</v>
+        <v>3.79938</v>
       </c>
       <c r="C28" t="n">
-        <v>9976.809999999999</v>
+        <v>3799.38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837374</v>
+        <v>0.837313</v>
       </c>
       <c r="B29" t="n">
-        <v>9.978540000000001</v>
+        <v>3.81673</v>
       </c>
       <c r="C29" t="n">
-        <v>9978.540000000001</v>
+        <v>3816.73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868552</v>
+        <v>0.868485</v>
       </c>
       <c r="B30" t="n">
-        <v>9.979600000000001</v>
+        <v>3.83366</v>
       </c>
       <c r="C30" t="n">
-        <v>9979.6</v>
+        <v>3833.66</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899724</v>
+        <v>0.899658</v>
       </c>
       <c r="B31" t="n">
-        <v>9.97983</v>
+        <v>3.85019</v>
       </c>
       <c r="C31" t="n">
-        <v>9979.83</v>
+        <v>3850.19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930897</v>
+        <v>0.930835</v>
       </c>
       <c r="B32" t="n">
-        <v>9.97932</v>
+        <v>3.86634</v>
       </c>
       <c r="C32" t="n">
-        <v>9979.32</v>
+        <v>3866.34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962074</v>
+        <v>0.9620069999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>9.97808</v>
+        <v>3.88217</v>
       </c>
       <c r="C33" t="n">
-        <v>9978.08</v>
+        <v>3882.17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993246</v>
+        <v>0.993184</v>
       </c>
       <c r="B34" t="n">
-        <v>9.9762</v>
+        <v>3.89768</v>
       </c>
       <c r="C34" t="n">
-        <v>9976.200000000001</v>
+        <v>3897.68</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02456</v>
+        <v>1.02423</v>
       </c>
       <c r="B35" t="n">
-        <v>9.97363</v>
+        <v>3.91286</v>
       </c>
       <c r="C35" t="n">
-        <v>9973.629999999999</v>
+        <v>3912.86</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05594</v>
+        <v>1.05519</v>
       </c>
       <c r="B36" t="n">
-        <v>9.970459999999999</v>
+        <v>3.92775</v>
       </c>
       <c r="C36" t="n">
-        <v>9970.459999999999</v>
+        <v>3927.75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08732</v>
+        <v>1.08616</v>
       </c>
       <c r="B37" t="n">
-        <v>9.966600000000001</v>
+        <v>3.94235</v>
       </c>
       <c r="C37" t="n">
-        <v>9966.6</v>
+        <v>3942.35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.1187</v>
+        <v>1.11713</v>
       </c>
       <c r="B38" t="n">
-        <v>9.962149999999999</v>
+        <v>3.95668</v>
       </c>
       <c r="C38" t="n">
-        <v>9962.15</v>
+        <v>3956.68</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14999</v>
+        <v>1.14809</v>
       </c>
       <c r="B39" t="n">
-        <v>9.957049999999999</v>
+        <v>3.97074</v>
       </c>
       <c r="C39" t="n">
-        <v>9957.049999999999</v>
+        <v>3970.74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18096</v>
+        <v>1.17906</v>
       </c>
       <c r="B40" t="n">
-        <v>9.9513</v>
+        <v>3.98452</v>
       </c>
       <c r="C40" t="n">
-        <v>9951.299999999999</v>
+        <v>3984.52</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21193</v>
+        <v>1.21003</v>
       </c>
       <c r="B41" t="n">
-        <v>9.94495</v>
+        <v>3.99806</v>
       </c>
       <c r="C41" t="n">
-        <v>9944.950000000001</v>
+        <v>3998.06</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24289</v>
+        <v>1.241</v>
       </c>
       <c r="B42" t="n">
-        <v>9.938040000000001</v>
+        <v>4.01135</v>
       </c>
       <c r="C42" t="n">
-        <v>9938.040000000001</v>
+        <v>4011.35</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27386</v>
+        <v>1.27197</v>
       </c>
       <c r="B43" t="n">
-        <v>9.93042</v>
+        <v>4.02441</v>
       </c>
       <c r="C43" t="n">
-        <v>9930.42</v>
+        <v>4024.41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30483</v>
+        <v>1.30293</v>
       </c>
       <c r="B44" t="n">
-        <v>9.922219999999999</v>
+        <v>4.03722</v>
       </c>
       <c r="C44" t="n">
-        <v>9922.219999999999</v>
+        <v>4037.22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33543</v>
+        <v>1.3339</v>
       </c>
       <c r="B45" t="n">
-        <v>9.91347</v>
+        <v>4.04986</v>
       </c>
       <c r="C45" t="n">
-        <v>9913.469999999999</v>
+        <v>4049.86</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36599</v>
+        <v>1.36487</v>
       </c>
       <c r="B46" t="n">
-        <v>9.90396</v>
+        <v>4.06226</v>
       </c>
       <c r="C46" t="n">
-        <v>9903.959999999999</v>
+        <v>4062.26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39654</v>
+        <v>1.39584</v>
       </c>
       <c r="B47" t="n">
-        <v>9.89391</v>
+        <v>4.07448</v>
       </c>
       <c r="C47" t="n">
-        <v>9893.91</v>
+        <v>4074.48</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42709</v>
+        <v>1.42681</v>
       </c>
       <c r="B48" t="n">
-        <v>9.883240000000001</v>
+        <v>4.08649</v>
       </c>
       <c r="C48" t="n">
-        <v>9883.24</v>
+        <v>4086.49</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45862</v>
+        <v>1.45777</v>
       </c>
       <c r="B49" t="n">
-        <v>9.871459999999999</v>
+        <v>4.098310000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>9871.459999999999</v>
+        <v>4098.31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.4902</v>
+        <v>1.48874</v>
       </c>
       <c r="B50" t="n">
-        <v>9.85891</v>
+        <v>4.10993</v>
       </c>
       <c r="C50" t="n">
-        <v>9858.91</v>
+        <v>4109.93</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52177</v>
+        <v>1.51971</v>
       </c>
       <c r="B51" t="n">
-        <v>9.845420000000001</v>
+        <v>4.121390000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>9845.42</v>
+        <v>4121.39</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55294</v>
+        <v>1.55068</v>
       </c>
       <c r="B52" t="n">
-        <v>9.830770000000001</v>
+        <v>4.13264</v>
       </c>
       <c r="C52" t="n">
-        <v>9830.77</v>
+        <v>4132.64</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58409</v>
+        <v>1.58164</v>
       </c>
       <c r="B53" t="n">
-        <v>9.814959999999999</v>
+        <v>4.14373</v>
       </c>
       <c r="C53" t="n">
-        <v>9814.959999999999</v>
+        <v>4143.73</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61523</v>
+        <v>1.61261</v>
       </c>
       <c r="B54" t="n">
-        <v>9.79843</v>
+        <v>4.15467</v>
       </c>
       <c r="C54" t="n">
-        <v>9798.43</v>
+        <v>4154.67</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64638</v>
+        <v>1.64358</v>
       </c>
       <c r="B55" t="n">
-        <v>9.7811</v>
+        <v>4.165439999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>9781.1</v>
+        <v>4165.44</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67753</v>
+        <v>1.67455</v>
       </c>
       <c r="B56" t="n">
-        <v>9.763030000000001</v>
+        <v>4.176060000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>9763.030000000001</v>
+        <v>4176.06</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70867</v>
+        <v>1.70552</v>
       </c>
       <c r="B57" t="n">
-        <v>9.74405</v>
+        <v>4.186520000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>9744.049999999999</v>
+        <v>4186.52</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73982</v>
+        <v>1.73648</v>
       </c>
       <c r="B58" t="n">
-        <v>9.72401</v>
+        <v>4.19684</v>
       </c>
       <c r="C58" t="n">
-        <v>9724.01</v>
+        <v>4196.84</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77097</v>
+        <v>1.76745</v>
       </c>
       <c r="B59" t="n">
-        <v>9.70302</v>
+        <v>4.207020000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>9703.02</v>
+        <v>4207.02</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80212</v>
+        <v>1.79842</v>
       </c>
       <c r="B60" t="n">
-        <v>9.68088</v>
+        <v>4.21704</v>
       </c>
       <c r="C60" t="n">
-        <v>9680.879999999999</v>
+        <v>4217.04</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83326</v>
+        <v>1.82938</v>
       </c>
       <c r="B61" t="n">
-        <v>9.657590000000001</v>
+        <v>4.22695</v>
       </c>
       <c r="C61" t="n">
-        <v>9657.59</v>
+        <v>4226.95</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86441</v>
+        <v>1.86035</v>
       </c>
       <c r="B62" t="n">
-        <v>9.63274</v>
+        <v>4.23671</v>
       </c>
       <c r="C62" t="n">
-        <v>9632.74</v>
+        <v>4236.71</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89556</v>
+        <v>1.89132</v>
       </c>
       <c r="B63" t="n">
-        <v>9.60632</v>
+        <v>4.24632</v>
       </c>
       <c r="C63" t="n">
-        <v>9606.32</v>
+        <v>4246.32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.9267</v>
+        <v>1.92229</v>
       </c>
       <c r="B64" t="n">
-        <v>9.5784</v>
+        <v>4.255800000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>9578.4</v>
+        <v>4255.8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95785</v>
+        <v>1.95326</v>
       </c>
       <c r="B65" t="n">
-        <v>9.548959999999999</v>
+        <v>4.26517</v>
       </c>
       <c r="C65" t="n">
-        <v>9548.959999999999</v>
+        <v>4265.17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.989</v>
+        <v>1.98422</v>
       </c>
       <c r="B66" t="n">
-        <v>9.517910000000001</v>
+        <v>4.27441</v>
       </c>
       <c r="C66" t="n">
-        <v>9517.91</v>
+        <v>4274.41</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.02001</v>
+        <v>2.01522</v>
       </c>
       <c r="B67" t="n">
-        <v>9.485200000000001</v>
+        <v>4.28352</v>
       </c>
       <c r="C67" t="n">
-        <v>9485.200000000001</v>
+        <v>4283.52</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.05072</v>
+        <v>2.0466</v>
       </c>
       <c r="B68" t="n">
-        <v>9.450700000000001</v>
+        <v>4.29251</v>
       </c>
       <c r="C68" t="n">
-        <v>9450.700000000001</v>
+        <v>4292.51</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08144</v>
+        <v>2.07797</v>
       </c>
       <c r="B69" t="n">
-        <v>9.414540000000001</v>
+        <v>4.30138</v>
       </c>
       <c r="C69" t="n">
-        <v>9414.540000000001</v>
+        <v>4301.38</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11246</v>
+        <v>2.10936</v>
       </c>
       <c r="B70" t="n">
-        <v>9.37646</v>
+        <v>4.31012</v>
       </c>
       <c r="C70" t="n">
-        <v>9376.459999999999</v>
+        <v>4310.12</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14347</v>
+        <v>2.14074</v>
       </c>
       <c r="B71" t="n">
-        <v>9.335850000000001</v>
+        <v>4.318779999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>9335.85</v>
+        <v>4318.78</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17437</v>
+        <v>2.17212</v>
       </c>
       <c r="B72" t="n">
-        <v>9.29358</v>
+        <v>4.327310000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>9293.58</v>
+        <v>4327.31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20547</v>
+        <v>2.2035</v>
       </c>
       <c r="B73" t="n">
-        <v>9.24816</v>
+        <v>4.33575</v>
       </c>
       <c r="C73" t="n">
-        <v>9248.16</v>
+        <v>4335.75</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23632</v>
+        <v>2.23488</v>
       </c>
       <c r="B74" t="n">
-        <v>9.20091</v>
+        <v>4.3441</v>
       </c>
       <c r="C74" t="n">
-        <v>9200.91</v>
+        <v>4344.1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26752</v>
+        <v>2.26626</v>
       </c>
       <c r="B75" t="n">
-        <v>9.15014</v>
+        <v>4.35233</v>
       </c>
       <c r="C75" t="n">
-        <v>9150.139999999999</v>
+        <v>4352.33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29821</v>
+        <v>2.297</v>
       </c>
       <c r="B76" t="n">
-        <v>9.09722</v>
+        <v>4.36046</v>
       </c>
       <c r="C76" t="n">
-        <v>9097.219999999999</v>
+        <v>4360.46</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.3296</v>
+        <v>2.32755</v>
       </c>
       <c r="B77" t="n">
-        <v>9.040270000000001</v>
+        <v>4.36847</v>
       </c>
       <c r="C77" t="n">
-        <v>9040.27</v>
+        <v>4368.47</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.36042</v>
+        <v>2.35811</v>
       </c>
       <c r="B78" t="n">
-        <v>8.980830000000001</v>
+        <v>4.37637</v>
       </c>
       <c r="C78" t="n">
-        <v>8980.83</v>
+        <v>4376.37</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39146</v>
+        <v>2.38866</v>
       </c>
       <c r="B79" t="n">
-        <v>8.917610000000002</v>
+        <v>4.384189999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>8917.610000000001</v>
+        <v>4384.19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42254</v>
+        <v>2.41921</v>
       </c>
       <c r="B80" t="n">
-        <v>8.851150000000001</v>
+        <v>4.3919</v>
       </c>
       <c r="C80" t="n">
-        <v>8851.15</v>
+        <v>4391.9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45347</v>
+        <v>2.45066</v>
       </c>
       <c r="B81" t="n">
-        <v>8.78129</v>
+        <v>4.39972</v>
       </c>
       <c r="C81" t="n">
-        <v>8781.290000000001</v>
+        <v>4399.72</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48365</v>
+        <v>2.48223</v>
       </c>
       <c r="B82" t="n">
-        <v>8.709490000000001</v>
+        <v>4.40746</v>
       </c>
       <c r="C82" t="n">
-        <v>8709.49</v>
+        <v>4407.46</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51517</v>
+        <v>2.51381</v>
       </c>
       <c r="B83" t="n">
-        <v>8.63137</v>
+        <v>4.41512</v>
       </c>
       <c r="C83" t="n">
-        <v>8631.370000000001</v>
+        <v>4415.12</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54659</v>
+        <v>2.54538</v>
       </c>
       <c r="B84" t="n">
-        <v>8.549239999999999</v>
+        <v>4.42267</v>
       </c>
       <c r="C84" t="n">
-        <v>8549.24</v>
+        <v>4422.67</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57728</v>
+        <v>2.57696</v>
       </c>
       <c r="B85" t="n">
-        <v>8.46557</v>
+        <v>4.4301</v>
       </c>
       <c r="C85" t="n">
-        <v>8465.57</v>
+        <v>4430.1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60752</v>
+        <v>2.60853</v>
       </c>
       <c r="B86" t="n">
-        <v>8.380700000000001</v>
+        <v>4.43744</v>
       </c>
       <c r="C86" t="n">
-        <v>8380.700000000001</v>
+        <v>4437.44</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63922</v>
+        <v>2.6401</v>
       </c>
       <c r="B87" t="n">
-        <v>8.287229999999999</v>
+        <v>4.4447</v>
       </c>
       <c r="C87" t="n">
-        <v>8287.23</v>
+        <v>4444.7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67066</v>
+        <v>2.67168</v>
       </c>
       <c r="B88" t="n">
-        <v>8.19214</v>
+        <v>4.45186</v>
       </c>
       <c r="C88" t="n">
-        <v>8192.139999999999</v>
+        <v>4451.86</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70138</v>
+        <v>2.70325</v>
       </c>
       <c r="B89" t="n">
-        <v>8.09657</v>
+        <v>4.458930000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>8096.57</v>
+        <v>4458.93</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73144</v>
+        <v>2.73482</v>
       </c>
       <c r="B90" t="n">
-        <v>7.999350000000001</v>
+        <v>4.4659</v>
       </c>
       <c r="C90" t="n">
-        <v>7999.35</v>
+        <v>4465.9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.7633</v>
+        <v>2.7664</v>
       </c>
       <c r="B91" t="n">
-        <v>7.8943</v>
+        <v>4.47278</v>
       </c>
       <c r="C91" t="n">
-        <v>7894.3</v>
+        <v>4472.78</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79457</v>
+        <v>2.79797</v>
       </c>
       <c r="B92" t="n">
-        <v>7.78985</v>
+        <v>4.479550000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>7789.85</v>
+        <v>4479.55</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82443</v>
+        <v>2.82954</v>
       </c>
       <c r="B93" t="n">
-        <v>7.6857</v>
+        <v>4.48625</v>
       </c>
       <c r="C93" t="n">
-        <v>7685.7</v>
+        <v>4486.25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.8548</v>
+        <v>2.86111</v>
       </c>
       <c r="B94" t="n">
-        <v>7.58045</v>
+        <v>4.492850000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>7580.45</v>
+        <v>4492.85</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88685</v>
+        <v>2.89269</v>
       </c>
       <c r="B95" t="n">
-        <v>7.46513</v>
+        <v>4.499359999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>7465.13</v>
+        <v>4499.36</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91885</v>
+        <v>2.92426</v>
       </c>
       <c r="B96" t="n">
-        <v>7.35178</v>
+        <v>4.50579</v>
       </c>
       <c r="C96" t="n">
-        <v>7351.78</v>
+        <v>4505.79</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.9494</v>
+        <v>2.95583</v>
       </c>
       <c r="B97" t="n">
-        <v>7.24063</v>
+        <v>4.51214</v>
       </c>
       <c r="C97" t="n">
-        <v>7240.63</v>
+        <v>4512.14</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.9798</v>
+        <v>2.98741</v>
       </c>
       <c r="B98" t="n">
-        <v>7.13157</v>
+        <v>4.51841</v>
       </c>
       <c r="C98" t="n">
-        <v>7131.57</v>
+        <v>4518.41</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00926</v>
+        <v>3.01898</v>
       </c>
       <c r="B99" t="n">
-        <v>7.02516</v>
+        <v>4.52459</v>
       </c>
       <c r="C99" t="n">
-        <v>7025.16</v>
+        <v>4524.59</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04112</v>
+        <v>3.05055</v>
       </c>
       <c r="B100" t="n">
-        <v>6.910010000000001</v>
+        <v>4.5307</v>
       </c>
       <c r="C100" t="n">
-        <v>6910.01</v>
+        <v>4530.7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07371</v>
+        <v>3.08213</v>
       </c>
       <c r="B101" t="n">
-        <v>6.793979999999999</v>
+        <v>4.53674</v>
       </c>
       <c r="C101" t="n">
-        <v>6793.98</v>
+        <v>4536.74</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10479</v>
+        <v>3.1137</v>
       </c>
       <c r="B102" t="n">
-        <v>6.68086</v>
+        <v>4.54271</v>
       </c>
       <c r="C102" t="n">
-        <v>6680.86</v>
+        <v>4542.71</v>
       </c>
     </row>
   </sheetData>
